--- a/utils/localisation_script/excel_to_json/gu/Gujarati - Generic DELTA.xlsx
+++ b/utils/localisation_script/excel_to_json/gu/Gujarati - Generic DELTA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sreejithv/TW/projects/ekStep/crowdsource-dataplatform/utils/localisation_script/excel_to_json/gu/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31742B55-ED85-7A45-BB97-9CDF8194AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delta" sheetId="7" r:id="rId1"/>
@@ -185,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="10"/>
@@ -542,63 +548,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="2" width="14.42578125" style="5"/>
+    <col min="1" max="2" width="14.5" style="5"/>
     <col min="3" max="3" width="21" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="51.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="57.5703125" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="5"/>
+    <col min="4" max="4" width="21.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="57.5" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="14.5" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="4" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5">
-      <c r="A3" s="6" t="s">
+    <row r="4" spans="1:7" ht="28">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="D4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>17</v>
@@ -608,225 +604,237 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>20</v>
+    <row r="5" spans="1:7" ht="14">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="89.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14">
       <c r="D6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="98">
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="E7" s="11"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E8" s="11"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="25.5">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10"/>
+    <row r="9" spans="1:7" ht="14">
+      <c r="A9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+    <row r="10" spans="1:7" ht="14">
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" ht="14">
+      <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12">
+      <c r="F12" s="10"/>
+      <c r="G12" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="89.25">
-      <c r="C12" s="6"/>
-      <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="98">
       <c r="C13" s="6"/>
       <c r="D13" s="3" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14">
+      <c r="C14" s="6"/>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="2" t="s">
+    <row r="15" spans="1:7" ht="14">
+      <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E15" s="14">
         <v>2</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="14">
+      <c r="F15" s="10"/>
+      <c r="G15" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="89.25">
-      <c r="C15" s="6"/>
-      <c r="D15" s="8" t="s">
+    <row r="16" spans="1:7" ht="98">
+      <c r="C16" s="6"/>
+      <c r="D16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="C16" s="6"/>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>7</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" ht="14">
+      <c r="C17" s="6"/>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="2" t="s">
+    <row r="18" spans="3:7" ht="14">
+      <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E18" s="12">
         <v>3</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="12">
+      <c r="F18" s="10"/>
+      <c r="G18" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="76.5">
-      <c r="C18" s="6"/>
-      <c r="D18" s="8" t="s">
+    <row r="19" spans="3:7" ht="84">
+      <c r="C19" s="6"/>
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="6"/>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" ht="14">
+      <c r="C20" s="6"/>
+      <c r="D20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="2" t="s">
+    <row r="21" spans="3:7" ht="14">
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E21" s="12">
         <v>4</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="12">
+      <c r="F21" s="10"/>
+      <c r="G21" s="12">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="102">
-      <c r="C21" s="6"/>
-      <c r="D21" s="8" t="s">
+    <row r="22" spans="3:7" ht="112">
+      <c r="C22" s="6"/>
+      <c r="D22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="6"/>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" ht="14">
+      <c r="C23" s="6"/>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="16" t="s">
         <v>40</v>
       </c>
     </row>
